--- a/dataanalysis/data/predictions/1200/09091135_1137.xlsx
+++ b/dataanalysis/data/predictions/1200/09091135_1137.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="120">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-09</t>
   </si>
   <si>
@@ -371,12 +374,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -734,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,19 +840,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.26</v>
@@ -873,7 +873,7 @@
         <v>168215.24</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -914,8 +914,23 @@
       <c r="W2">
         <v>-0.59</v>
       </c>
+      <c r="X2">
+        <v>-2.94</v>
+      </c>
+      <c r="Y2">
+        <v>55.81</v>
+      </c>
+      <c r="Z2">
+        <v>3.14</v>
+      </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -923,22 +938,25 @@
       <c r="AG2">
         <v>2.369370460510254</v>
       </c>
-      <c r="AH2" t="s">
-        <v>119</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300014</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.86</v>
@@ -956,7 +974,7 @@
         <v>488961.02</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -997,8 +1015,23 @@
       <c r="W3">
         <v>-0.16</v>
       </c>
+      <c r="X3">
+        <v>-2.88</v>
+      </c>
+      <c r="Y3">
+        <v>71.3</v>
+      </c>
+      <c r="Z3">
+        <v>-2.07</v>
+      </c>
       <c r="AC3" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1006,22 +1039,25 @@
       <c r="AG3">
         <v>2.213418960571289</v>
       </c>
-      <c r="AH3" t="s">
-        <v>119</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300092</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-4.67</v>
@@ -1039,7 +1075,7 @@
         <v>70368.56</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1080,8 +1116,23 @@
       <c r="W4">
         <v>-0.54</v>
       </c>
+      <c r="X4">
+        <v>-6.74</v>
+      </c>
+      <c r="Y4">
+        <v>20</v>
+      </c>
+      <c r="Z4">
+        <v>6.61</v>
+      </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1089,22 +1140,25 @@
       <c r="AG4">
         <v>1.881823301315308</v>
       </c>
-      <c r="AH4" t="s">
-        <v>119</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300124</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-3.17</v>
@@ -1122,7 +1176,7 @@
         <v>426219.06</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1163,8 +1217,23 @@
       <c r="W5">
         <v>-0.26</v>
       </c>
+      <c r="X5">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>1.28</v>
+      </c>
       <c r="AC5" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1172,22 +1241,25 @@
       <c r="AG5">
         <v>0.3757346272468567</v>
       </c>
-      <c r="AH5" t="s">
-        <v>119</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300139</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>17.11</v>
@@ -1205,7 +1277,7 @@
         <v>261725.64</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1246,8 +1318,23 @@
       <c r="W6">
         <v>2.86</v>
       </c>
+      <c r="X6">
+        <v>0.22</v>
+      </c>
+      <c r="Y6">
+        <v>28.58</v>
+      </c>
+      <c r="Z6">
+        <v>7.08</v>
+      </c>
       <c r="AC6" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1255,22 +1342,25 @@
       <c r="AG6">
         <v>2.287010192871094</v>
       </c>
-      <c r="AH6" t="s">
-        <v>119</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300207</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-4.21</v>
@@ -1288,7 +1378,7 @@
         <v>315132.08</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1329,8 +1419,23 @@
       <c r="W7">
         <v>-0.27</v>
       </c>
+      <c r="X7">
+        <v>-4.85</v>
+      </c>
+      <c r="Y7">
+        <v>28.66</v>
+      </c>
+      <c r="Z7">
+        <v>-1.65</v>
+      </c>
       <c r="AC7" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1338,22 +1443,25 @@
       <c r="AG7">
         <v>0.8096921443939209</v>
       </c>
-      <c r="AH7" t="s">
-        <v>119</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300237</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3.02</v>
@@ -1371,7 +1479,7 @@
         <v>49300.44</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1412,8 +1520,23 @@
       <c r="W8">
         <v>-0.36</v>
       </c>
+      <c r="X8">
+        <v>-1.47</v>
+      </c>
+      <c r="Y8">
+        <v>3.5</v>
+      </c>
+      <c r="Z8">
+        <v>2.64</v>
+      </c>
       <c r="AC8" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1421,22 +1544,25 @@
       <c r="AG8">
         <v>4.137757301330566</v>
       </c>
-      <c r="AH8" t="s">
-        <v>119</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-4.18</v>
@@ -1454,7 +1580,7 @@
         <v>1032602.62</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1495,8 +1621,23 @@
       <c r="W9">
         <v>-0.17</v>
       </c>
+      <c r="X9">
+        <v>-1.22</v>
+      </c>
+      <c r="Y9">
+        <v>131.36</v>
+      </c>
+      <c r="Z9">
+        <v>0.08</v>
+      </c>
       <c r="AC9" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1504,22 +1645,25 @@
       <c r="AG9">
         <v>-2.914930820465088</v>
       </c>
-      <c r="AH9" t="s">
-        <v>119</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300277</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>6.48</v>
@@ -1537,7 +1681,7 @@
         <v>66886.92999999999</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1578,8 +1722,23 @@
       <c r="W10">
         <v>0.22</v>
       </c>
+      <c r="X10">
+        <v>-3.85</v>
+      </c>
+      <c r="Y10">
+        <v>15.46</v>
+      </c>
+      <c r="Z10">
+        <v>-1.97</v>
+      </c>
       <c r="AC10" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1587,22 +1746,25 @@
       <c r="AG10">
         <v>4.92557954788208</v>
       </c>
-      <c r="AH10" t="s">
-        <v>119</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300331</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-4.98</v>
@@ -1620,7 +1782,7 @@
         <v>83788.35000000001</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1661,8 +1823,23 @@
       <c r="W11">
         <v>-0.98</v>
       </c>
+      <c r="X11">
+        <v>-1.61</v>
+      </c>
+      <c r="Y11">
+        <v>31.66</v>
+      </c>
+      <c r="Z11">
+        <v>3.74</v>
+      </c>
       <c r="AC11" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1670,22 +1847,25 @@
       <c r="AG11">
         <v>0.2958601117134094</v>
       </c>
-      <c r="AH11" t="s">
-        <v>119</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300409</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.81</v>
@@ -1703,7 +1883,7 @@
         <v>136021.41</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>17</v>
@@ -1744,8 +1924,23 @@
       <c r="W12">
         <v>-0.05</v>
       </c>
+      <c r="X12">
+        <v>6.87</v>
+      </c>
+      <c r="Y12">
+        <v>25.5</v>
+      </c>
+      <c r="Z12">
+        <v>6.83</v>
+      </c>
       <c r="AC12" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1753,22 +1948,25 @@
       <c r="AG12">
         <v>2.609095573425293</v>
       </c>
-      <c r="AH12" t="s">
-        <v>119</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300410</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.65</v>
@@ -1786,7 +1984,7 @@
         <v>41215.41</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1827,8 +2025,23 @@
       <c r="W13">
         <v>-0.23</v>
       </c>
+      <c r="X13">
+        <v>-5.7</v>
+      </c>
+      <c r="Y13">
+        <v>10.34</v>
+      </c>
+      <c r="Z13">
+        <v>-3</v>
+      </c>
       <c r="AC13" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1836,22 +2049,25 @@
       <c r="AG13">
         <v>3.644621133804321</v>
       </c>
-      <c r="AH13" t="s">
-        <v>119</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300450</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-2.65</v>
@@ -1869,7 +2085,7 @@
         <v>847135.39</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -1910,8 +2126,23 @@
       <c r="W14">
         <v>-0.37</v>
       </c>
+      <c r="X14">
+        <v>4.55</v>
+      </c>
+      <c r="Y14">
+        <v>58.84</v>
+      </c>
+      <c r="Z14">
+        <v>5.32</v>
+      </c>
       <c r="AC14" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1919,22 +2150,25 @@
       <c r="AG14">
         <v>1.81540584564209</v>
       </c>
-      <c r="AH14" t="s">
-        <v>119</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300465</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.35</v>
@@ -1952,7 +2186,7 @@
         <v>100346.11</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <v>9</v>
@@ -1993,8 +2227,23 @@
       <c r="W15">
         <v>-0.41</v>
       </c>
+      <c r="X15">
+        <v>-0.16</v>
+      </c>
+      <c r="Y15">
+        <v>26.25</v>
+      </c>
+      <c r="Z15">
+        <v>2.9</v>
+      </c>
       <c r="AC15" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2002,22 +2251,25 @@
       <c r="AG15">
         <v>5.245991230010986</v>
       </c>
-      <c r="AH15" t="s">
-        <v>119</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300469</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-4.74</v>
@@ -2035,7 +2287,7 @@
         <v>93839.72</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>14</v>
@@ -2076,8 +2328,23 @@
       <c r="W16">
         <v>-0.25</v>
       </c>
+      <c r="X16">
+        <v>1.43</v>
+      </c>
+      <c r="Y16">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="Z16">
+        <v>5.5</v>
+      </c>
       <c r="AC16" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2085,22 +2352,25 @@
       <c r="AG16">
         <v>-0.122695155441761</v>
       </c>
-      <c r="AH16" t="s">
-        <v>119</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300475</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>6.68</v>
@@ -2118,7 +2388,7 @@
         <v>204391.53</v>
       </c>
       <c r="J17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2159,8 +2429,23 @@
       <c r="W17">
         <v>0.68</v>
       </c>
+      <c r="X17">
+        <v>0.49</v>
+      </c>
+      <c r="Y17">
+        <v>54.6</v>
+      </c>
+      <c r="Z17">
+        <v>1.49</v>
+      </c>
       <c r="AC17" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2168,22 +2453,25 @@
       <c r="AG17">
         <v>2.154200792312622</v>
       </c>
-      <c r="AH17" t="s">
-        <v>119</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300491</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.44</v>
@@ -2201,7 +2489,7 @@
         <v>42092.18</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18">
         <v>13</v>
@@ -2242,8 +2530,23 @@
       <c r="W18">
         <v>-0.01</v>
       </c>
+      <c r="X18">
+        <v>-5.05</v>
+      </c>
+      <c r="Y18">
+        <v>38.26</v>
+      </c>
+      <c r="Z18">
+        <v>-2.35</v>
+      </c>
       <c r="AC18" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2251,22 +2554,25 @@
       <c r="AG18">
         <v>2.245532751083374</v>
       </c>
-      <c r="AH18" t="s">
-        <v>119</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300528</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>7.23</v>
@@ -2284,7 +2590,7 @@
         <v>104135.64</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2325,8 +2631,23 @@
       <c r="W19">
         <v>0.04</v>
       </c>
+      <c r="X19">
+        <v>13.83</v>
+      </c>
+      <c r="Y19">
+        <v>30.89</v>
+      </c>
+      <c r="Z19">
+        <v>34.3</v>
+      </c>
       <c r="AC19" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2334,22 +2655,25 @@
       <c r="AG19">
         <v>4.712961196899414</v>
       </c>
-      <c r="AH19" t="s">
-        <v>119</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300539</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.5600000000000001</v>
@@ -2367,7 +2691,7 @@
         <v>117196.49</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2408,8 +2732,23 @@
       <c r="W20">
         <v>-1.3</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>40.5</v>
+      </c>
+      <c r="Z20">
+        <v>2.27</v>
+      </c>
       <c r="AC20" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2417,22 +2756,25 @@
       <c r="AG20">
         <v>7.037689208984375</v>
       </c>
-      <c r="AH20" t="s">
-        <v>119</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300584</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-2.65</v>
@@ -2450,7 +2792,7 @@
         <v>75928.88</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>21</v>
@@ -2491,8 +2833,23 @@
       <c r="W21">
         <v>0.59</v>
       </c>
+      <c r="X21">
+        <v>-2.81</v>
+      </c>
+      <c r="Y21">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="Z21">
+        <v>-0.37</v>
+      </c>
       <c r="AC21" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2500,22 +2857,25 @@
       <c r="AG21">
         <v>5.077366828918457</v>
       </c>
-      <c r="AH21" t="s">
-        <v>119</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300618</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-4.01</v>
@@ -2533,7 +2893,7 @@
         <v>123873.57</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2574,8 +2934,23 @@
       <c r="W22">
         <v>-0.86</v>
       </c>
+      <c r="X22">
+        <v>4.84</v>
+      </c>
+      <c r="Y22">
+        <v>52.55</v>
+      </c>
+      <c r="Z22">
+        <v>5.08</v>
+      </c>
       <c r="AC22" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2583,22 +2958,25 @@
       <c r="AG22">
         <v>3.242186069488525</v>
       </c>
-      <c r="AH22" t="s">
-        <v>119</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300619</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.47</v>
@@ -2616,7 +2994,7 @@
         <v>95841.48</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2657,8 +3035,23 @@
       <c r="W23">
         <v>-0.01</v>
       </c>
+      <c r="X23">
+        <v>-4.78</v>
+      </c>
+      <c r="Y23">
+        <v>36.99</v>
+      </c>
+      <c r="Z23">
+        <v>2.69</v>
+      </c>
       <c r="AC23" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2666,22 +3059,25 @@
       <c r="AG23">
         <v>33.74981307983398</v>
       </c>
-      <c r="AH23" t="s">
-        <v>119</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300763</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3.38</v>
@@ -2699,7 +3095,7 @@
         <v>230859.34</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2740,8 +3136,23 @@
       <c r="W24">
         <v>-0.3</v>
       </c>
+      <c r="X24">
+        <v>-4.43</v>
+      </c>
+      <c r="Y24">
+        <v>89</v>
+      </c>
+      <c r="Z24">
+        <v>1.22</v>
+      </c>
       <c r="AC24" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2749,22 +3160,25 @@
       <c r="AG24">
         <v>3.002004384994507</v>
       </c>
-      <c r="AH24" t="s">
-        <v>119</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300769</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-1.88</v>
@@ -2782,7 +3196,7 @@
         <v>81055.00999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2823,8 +3237,23 @@
       <c r="W25">
         <v>-0.32</v>
       </c>
+      <c r="X25">
+        <v>-2.51</v>
+      </c>
+      <c r="Y25">
+        <v>42.58</v>
+      </c>
+      <c r="Z25">
+        <v>-0.68</v>
+      </c>
       <c r="AC25" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2832,22 +3261,25 @@
       <c r="AG25">
         <v>-10.05515098571777</v>
       </c>
-      <c r="AH25" t="s">
-        <v>119</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300772</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-2.53</v>
@@ -2865,7 +3297,7 @@
         <v>52292.21</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K26">
         <v>12</v>
@@ -2906,8 +3338,23 @@
       <c r="W26">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X26">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y26">
+        <v>18.07</v>
+      </c>
+      <c r="Z26">
+        <v>-0.22</v>
+      </c>
       <c r="AC26" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2915,22 +3362,25 @@
       <c r="AG26">
         <v>2.591369867324829</v>
       </c>
-      <c r="AH26" t="s">
-        <v>119</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300801</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>7.94</v>
@@ -2948,7 +3398,7 @@
         <v>100042.27</v>
       </c>
       <c r="J27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2989,8 +3439,23 @@
       <c r="W27">
         <v>0.28</v>
       </c>
+      <c r="X27">
+        <v>-5.26</v>
+      </c>
+      <c r="Y27">
+        <v>31.41</v>
+      </c>
+      <c r="Z27">
+        <v>-2.48</v>
+      </c>
       <c r="AC27" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2998,22 +3463,25 @@
       <c r="AG27">
         <v>1.646605491638184</v>
       </c>
-      <c r="AH27" t="s">
-        <v>119</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300827</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3031,7 +3499,7 @@
         <v>208365</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3072,8 +3540,23 @@
       <c r="W28">
         <v>-0.33</v>
       </c>
+      <c r="X28">
+        <v>-9.93</v>
+      </c>
+      <c r="Y28">
+        <v>35.77</v>
+      </c>
+      <c r="Z28">
+        <v>0.03</v>
+      </c>
       <c r="AC28" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3081,22 +3564,25 @@
       <c r="AG28">
         <v>5.210126876831055</v>
       </c>
-      <c r="AH28" t="s">
-        <v>119</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300857</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>1.81</v>
@@ -3114,7 +3600,7 @@
         <v>139634.14</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K29">
         <v>13</v>
@@ -3155,8 +3641,23 @@
       <c r="W29">
         <v>0.14</v>
       </c>
+      <c r="X29">
+        <v>11.29</v>
+      </c>
+      <c r="Y29">
+        <v>132</v>
+      </c>
+      <c r="Z29">
+        <v>15.1</v>
+      </c>
       <c r="AC29" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3164,22 +3665,25 @@
       <c r="AG29">
         <v>1.997288942337036</v>
       </c>
-      <c r="AH29" t="s">
-        <v>119</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300953</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-1.4</v>
@@ -3197,7 +3701,7 @@
         <v>106347.23</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -3238,8 +3742,23 @@
       <c r="W30">
         <v>-0.65</v>
       </c>
+      <c r="X30">
+        <v>-4.64</v>
+      </c>
+      <c r="Y30">
+        <v>157.9</v>
+      </c>
+      <c r="Z30">
+        <v>2.7</v>
+      </c>
       <c r="AC30" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3247,22 +3766,25 @@
       <c r="AG30">
         <v>2.217504262924194</v>
       </c>
-      <c r="AH30" t="s">
-        <v>119</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300997</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.63</v>
@@ -3280,7 +3802,7 @@
         <v>39405.22</v>
       </c>
       <c r="J31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3321,8 +3843,23 @@
       <c r="W31">
         <v>-0.04</v>
       </c>
+      <c r="X31">
+        <v>8.19</v>
+      </c>
+      <c r="Y31">
+        <v>22</v>
+      </c>
+      <c r="Z31">
+        <v>4.22</v>
+      </c>
       <c r="AC31" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3330,22 +3867,25 @@
       <c r="AG31">
         <v>3.606278896331787</v>
       </c>
-      <c r="AH31" t="s">
-        <v>119</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301076</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>4.51</v>
@@ -3363,7 +3903,7 @@
         <v>191629.77</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3404,8 +3944,23 @@
       <c r="W32">
         <v>-1.01</v>
       </c>
+      <c r="X32">
+        <v>-2.28</v>
+      </c>
+      <c r="Y32">
+        <v>62.78</v>
+      </c>
+      <c r="Z32">
+        <v>-1.09</v>
+      </c>
       <c r="AC32" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3413,22 +3968,25 @@
       <c r="AG32">
         <v>9.52924633026123</v>
       </c>
-      <c r="AH32" t="s">
-        <v>119</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301150</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.58</v>
@@ -3446,7 +4004,7 @@
         <v>85293.75</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3487,8 +4045,23 @@
       <c r="W33">
         <v>1.06</v>
       </c>
+      <c r="X33">
+        <v>-0.27</v>
+      </c>
+      <c r="Y33">
+        <v>38.46</v>
+      </c>
+      <c r="Z33">
+        <v>2.97</v>
+      </c>
       <c r="AC33" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3496,22 +4069,25 @@
       <c r="AG33">
         <v>2.575697422027588</v>
       </c>
-      <c r="AH33" t="s">
-        <v>120</v>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301413</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.76</v>
@@ -3529,7 +4105,7 @@
         <v>55231.83</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34">
         <v>13</v>
@@ -3570,8 +4146,23 @@
       <c r="W34">
         <v>-0.06</v>
       </c>
+      <c r="X34">
+        <v>-3.56</v>
+      </c>
+      <c r="Y34">
+        <v>149.88</v>
+      </c>
+      <c r="Z34">
+        <v>2.94</v>
+      </c>
       <c r="AC34" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3579,22 +4170,25 @@
       <c r="AG34">
         <v>1.122057557106018</v>
       </c>
-      <c r="AH34" t="s">
-        <v>119</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301486</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>11.4</v>
@@ -3612,7 +4206,7 @@
         <v>118196.98</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3653,8 +4247,23 @@
       <c r="W35">
         <v>0.45</v>
       </c>
+      <c r="X35">
+        <v>2.2</v>
+      </c>
+      <c r="Y35">
+        <v>106</v>
+      </c>
+      <c r="Z35">
+        <v>3.62</v>
+      </c>
       <c r="AC35" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3662,22 +4271,25 @@
       <c r="AG35">
         <v>3.953185319900513</v>
       </c>
-      <c r="AH35" t="s">
-        <v>120</v>
+      <c r="AH35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301488</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0.35</v>
@@ -3695,7 +4307,7 @@
         <v>86586.49000000001</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36">
         <v>10</v>
@@ -3736,8 +4348,23 @@
       <c r="W36">
         <v>-0.67</v>
       </c>
+      <c r="X36">
+        <v>-5.98</v>
+      </c>
+      <c r="Y36">
+        <v>139.8</v>
+      </c>
+      <c r="Z36">
+        <v>-1.89</v>
+      </c>
       <c r="AC36" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3745,22 +4372,25 @@
       <c r="AG36">
         <v>2.596013784408569</v>
       </c>
-      <c r="AH36" t="s">
-        <v>119</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301617</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>6.76</v>
@@ -3778,7 +4408,7 @@
         <v>40445.59</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K37">
         <v>13</v>
@@ -3819,8 +4449,23 @@
       <c r="W37">
         <v>1.61</v>
       </c>
+      <c r="X37">
+        <v>3.29</v>
+      </c>
+      <c r="Y37">
+        <v>88.77</v>
+      </c>
+      <c r="Z37">
+        <v>13.13</v>
+      </c>
       <c r="AC37" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3828,22 +4473,25 @@
       <c r="AG37">
         <v>2.223209381103516</v>
       </c>
-      <c r="AH37" t="s">
-        <v>119</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688005</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>2.83</v>
@@ -3861,7 +4509,7 @@
         <v>127638.3</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3902,8 +4550,23 @@
       <c r="W38">
         <v>-0.23</v>
       </c>
+      <c r="X38">
+        <v>-1.03</v>
+      </c>
+      <c r="Y38">
+        <v>29.18</v>
+      </c>
+      <c r="Z38">
+        <v>-2.01</v>
+      </c>
       <c r="AC38" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -3911,22 +4574,25 @@
       <c r="AG38">
         <v>6.808520793914795</v>
       </c>
-      <c r="AH38" t="s">
-        <v>119</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688006</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-2.28</v>
@@ -3944,7 +4610,7 @@
         <v>92982.25</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -3985,8 +4651,23 @@
       <c r="W39">
         <v>-0.2</v>
       </c>
+      <c r="X39">
+        <v>5.88</v>
+      </c>
+      <c r="Y39">
+        <v>41.79</v>
+      </c>
+      <c r="Z39">
+        <v>8.52</v>
+      </c>
       <c r="AC39" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -3994,22 +4675,25 @@
       <c r="AG39">
         <v>0.4745496511459351</v>
       </c>
-      <c r="AH39" t="s">
-        <v>119</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688066</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-7.05</v>
@@ -4027,7 +4711,7 @@
         <v>93248.21000000001</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4068,8 +4752,23 @@
       <c r="W40">
         <v>-0.8</v>
       </c>
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+      <c r="Y40">
+        <v>38.61</v>
+      </c>
+      <c r="Z40">
+        <v>4.95</v>
+      </c>
       <c r="AC40" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4077,22 +4776,25 @@
       <c r="AG40">
         <v>2.565502643585205</v>
       </c>
-      <c r="AH40" t="s">
-        <v>119</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688116</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>0.34</v>
@@ -4110,7 +4812,7 @@
         <v>123119.83</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4151,8 +4853,23 @@
       <c r="W41">
         <v>0.12</v>
       </c>
+      <c r="X41">
+        <v>-1.57</v>
+      </c>
+      <c r="Y41">
+        <v>56.61</v>
+      </c>
+      <c r="Z41">
+        <v>1.63</v>
+      </c>
       <c r="AC41" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4160,22 +4877,25 @@
       <c r="AG41">
         <v>4.995978355407715</v>
       </c>
-      <c r="AH41" t="s">
-        <v>119</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688141</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-0.96</v>
@@ -4193,7 +4913,7 @@
         <v>36101.25</v>
       </c>
       <c r="J42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4234,8 +4954,23 @@
       <c r="W42">
         <v>-0.01</v>
       </c>
+      <c r="X42">
+        <v>0.74</v>
+      </c>
+      <c r="Y42">
+        <v>47.43</v>
+      </c>
+      <c r="Z42">
+        <v>1.91</v>
+      </c>
       <c r="AC42" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4243,22 +4978,25 @@
       <c r="AG42">
         <v>-1.009770274162292</v>
       </c>
-      <c r="AH42" t="s">
-        <v>119</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688147</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.91</v>
@@ -4276,7 +5014,7 @@
         <v>87233.41</v>
       </c>
       <c r="J43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K43">
         <v>17</v>
@@ -4317,8 +5055,23 @@
       <c r="W43">
         <v>-0.68</v>
       </c>
+      <c r="X43">
+        <v>-2.11</v>
+      </c>
+      <c r="Y43">
+        <v>47.22</v>
+      </c>
+      <c r="Z43">
+        <v>1.53</v>
+      </c>
       <c r="AC43" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4326,22 +5079,25 @@
       <c r="AG43">
         <v>2.669166326522827</v>
       </c>
-      <c r="AH43" t="s">
-        <v>119</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688155</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0.48</v>
@@ -4359,7 +5115,7 @@
         <v>45162.62</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4400,8 +5156,23 @@
       <c r="W44">
         <v>0.04</v>
       </c>
+      <c r="X44">
+        <v>-3.96</v>
+      </c>
+      <c r="Y44">
+        <v>77.17</v>
+      </c>
+      <c r="Z44">
+        <v>2.67</v>
+      </c>
       <c r="AC44" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4409,22 +5180,25 @@
       <c r="AG44">
         <v>15.63034248352051</v>
       </c>
-      <c r="AH44" t="s">
-        <v>119</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688170</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.35</v>
@@ -4442,7 +5216,7 @@
         <v>40426.61</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4483,8 +5257,23 @@
       <c r="W45">
         <v>-0.25</v>
       </c>
+      <c r="X45">
+        <v>0.09</v>
+      </c>
+      <c r="Y45">
+        <v>46.78</v>
+      </c>
+      <c r="Z45">
+        <v>-0.26</v>
+      </c>
       <c r="AC45" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4492,22 +5281,25 @@
       <c r="AG45">
         <v>6.875339984893799</v>
       </c>
-      <c r="AH45" t="s">
-        <v>119</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688195</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>2.97</v>
@@ -4525,7 +5317,7 @@
         <v>93562.77</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K46">
         <v>17</v>
@@ -4566,8 +5358,23 @@
       <c r="W46">
         <v>0.79</v>
       </c>
+      <c r="X46">
+        <v>-5.24</v>
+      </c>
+      <c r="Y46">
+        <v>93.86</v>
+      </c>
+      <c r="Z46">
+        <v>3.23</v>
+      </c>
       <c r="AC46" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4575,22 +5382,25 @@
       <c r="AG46">
         <v>10.35497283935547</v>
       </c>
-      <c r="AH46" t="s">
-        <v>119</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688234</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-2.02</v>
@@ -4608,7 +5418,7 @@
         <v>97436.10000000001</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4649,8 +5459,23 @@
       <c r="W47">
         <v>-0.27</v>
       </c>
+      <c r="X47">
+        <v>2.79</v>
+      </c>
+      <c r="Y47">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="Z47">
+        <v>4.77</v>
+      </c>
       <c r="AC47" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4658,22 +5483,25 @@
       <c r="AG47">
         <v>19.19470405578613</v>
       </c>
-      <c r="AH47" t="s">
-        <v>119</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688331</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>15.16</v>
@@ -4691,7 +5519,7 @@
         <v>179461.99</v>
       </c>
       <c r="J48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4732,8 +5560,23 @@
       <c r="W48">
         <v>0.7</v>
       </c>
+      <c r="X48">
+        <v>-0.9</v>
+      </c>
+      <c r="Y48">
+        <v>108.67</v>
+      </c>
+      <c r="Z48">
+        <v>1.47</v>
+      </c>
       <c r="AC48" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4741,22 +5584,25 @@
       <c r="AG48">
         <v>2.175273895263672</v>
       </c>
-      <c r="AH48" t="s">
-        <v>119</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688353</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-4.11</v>
@@ -4774,7 +5620,7 @@
         <v>52146.5</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4815,8 +5661,23 @@
       <c r="W49">
         <v>-1.12</v>
       </c>
+      <c r="X49">
+        <v>-2.53</v>
+      </c>
+      <c r="Y49">
+        <v>46</v>
+      </c>
+      <c r="Z49">
+        <v>-0.52</v>
+      </c>
       <c r="AC49" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4824,22 +5685,25 @@
       <c r="AG49">
         <v>7.022475719451904</v>
       </c>
-      <c r="AH49" t="s">
-        <v>119</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688390</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.52</v>
@@ -4857,7 +5721,7 @@
         <v>33408.69</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50">
         <v>9</v>
@@ -4898,8 +5762,23 @@
       <c r="W50">
         <v>-0.21</v>
       </c>
+      <c r="X50">
+        <v>-1.16</v>
+      </c>
+      <c r="Y50">
+        <v>55.25</v>
+      </c>
+      <c r="Z50">
+        <v>-1.6</v>
+      </c>
       <c r="AC50" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4907,22 +5786,25 @@
       <c r="AG50">
         <v>2.226082563400269</v>
       </c>
-      <c r="AH50" t="s">
-        <v>119</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688411</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-0.29</v>
@@ -4940,7 +5822,7 @@
         <v>68543.81</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K51">
         <v>6</v>
@@ -4981,8 +5863,23 @@
       <c r="W51">
         <v>0.15</v>
       </c>
+      <c r="X51">
+        <v>-7.09</v>
+      </c>
+      <c r="Y51">
+        <v>173.95</v>
+      </c>
+      <c r="Z51">
+        <v>-0.01</v>
+      </c>
       <c r="AC51" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -4990,22 +5887,25 @@
       <c r="AG51">
         <v>8.600995063781738</v>
       </c>
-      <c r="AH51" t="s">
-        <v>119</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688499</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.77</v>
@@ -5023,7 +5923,7 @@
         <v>129573.07</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5064,8 +5964,23 @@
       <c r="W52">
         <v>-0.42</v>
       </c>
+      <c r="X52">
+        <v>1.47</v>
+      </c>
+      <c r="Y52">
+        <v>79.16</v>
+      </c>
+      <c r="Z52">
+        <v>4.43</v>
+      </c>
       <c r="AC52" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5073,22 +5988,25 @@
       <c r="AG52">
         <v>3.191497087478638</v>
       </c>
-      <c r="AH52" t="s">
-        <v>119</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688559</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-2.75</v>
@@ -5106,7 +6024,7 @@
         <v>58615.25</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5147,8 +6065,23 @@
       <c r="W53">
         <v>-0.22</v>
       </c>
+      <c r="X53">
+        <v>0.29</v>
+      </c>
+      <c r="Y53">
+        <v>42.65</v>
+      </c>
+      <c r="Z53">
+        <v>4.15</v>
+      </c>
       <c r="AC53" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5156,22 +6089,25 @@
       <c r="AG53">
         <v>2.288435697555542</v>
       </c>
-      <c r="AH53" t="s">
-        <v>119</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688598</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-4.19</v>
@@ -5189,7 +6125,7 @@
         <v>36876.99</v>
       </c>
       <c r="J54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5230,8 +6166,23 @@
       <c r="W54">
         <v>-0.39</v>
       </c>
+      <c r="X54">
+        <v>0.78</v>
+      </c>
+      <c r="Y54">
+        <v>37.6</v>
+      </c>
+      <c r="Z54">
+        <v>3.35</v>
+      </c>
       <c r="AC54" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5239,8 +6190,11 @@
       <c r="AG54">
         <v>4.268311977386475</v>
       </c>
-      <c r="AH54" t="s">
-        <v>119</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
